--- a/trunk/交易紀錄/信用貸款.xlsx
+++ b/trunk/交易紀錄/信用貸款.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="國泰" sheetId="2" r:id="rId1"/>
@@ -15,16 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>支出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>存入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -50,6 +46,14 @@
   </si>
   <si>
     <t>貸款金額</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -406,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="A1:H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -417,71 +421,81 @@
     <col min="1" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>8780</v>
+        <v>6830</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
+        <v>1950</v>
+      </c>
+      <c r="E1">
+        <f>SUBTOTAL(9,E3:E500)</f>
         <v>10000</v>
       </c>
-      <c r="E1">
-        <f>D1-C1</f>
+      <c r="F1">
+        <f>E1-C1-D1</f>
         <v>1220</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <v>5000</v>
       </c>
-      <c r="G1">
-        <f>C1+F1</f>
-        <v>13780</v>
-      </c>
       <c r="H1">
+        <f>D1+G1</f>
+        <v>6950</v>
+      </c>
+      <c r="I1">
         <v>650000</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>41986</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>8780</v>
+        <v>6830</v>
       </c>
       <c r="D3">
+        <v>1950</v>
+      </c>
+      <c r="E3">
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>
@@ -494,10 +508,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -505,68 +519,75 @@
     <col min="1" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
         <v>0</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <f>SUBTOTAL(9,E3:E500)</f>
         <v>8000</v>
       </c>
-      <c r="E1">
-        <f>D1-C1</f>
+      <c r="F1">
+        <f>E1-C1-D1</f>
         <v>8000</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <v>3200</v>
       </c>
-      <c r="G1">
-        <f>C1+F1</f>
+      <c r="H1">
+        <f>D1+G1</f>
         <v>3200</v>
       </c>
-      <c r="H1">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>41986</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>41998</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
         <v>8000</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>

--- a/trunk/交易紀錄/信用貸款.xlsx
+++ b/trunk/交易紀錄/信用貸款.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="國泰" sheetId="2" r:id="rId1"/>
@@ -412,7 +412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -510,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -544,7 +544,7 @@
         <v>3200</v>
       </c>
       <c r="I1">
-        <v>50000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="2" spans="1:9">

--- a/trunk/交易紀錄/信用貸款.xlsx
+++ b/trunk/交易紀錄/信用貸款.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="1"/>
@@ -10,7 +10,7 @@
     <sheet name="國泰" sheetId="2" r:id="rId1"/>
     <sheet name="合庫" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -122,6 +122,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -133,7 +201,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -511,7 +579,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -522,11 +590,11 @@
     <row r="1" spans="1:9">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>0</v>
+        <v>5577</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>0</v>
+        <v>783</v>
       </c>
       <c r="E1">
         <f>SUBTOTAL(9,E3:E500)</f>
@@ -534,14 +602,14 @@
       </c>
       <c r="F1">
         <f>E1-C1-D1</f>
-        <v>8000</v>
+        <v>1640</v>
       </c>
       <c r="G1">
         <v>3200</v>
       </c>
       <c r="H1">
         <f>D1+G1</f>
-        <v>3200</v>
+        <v>3983</v>
       </c>
       <c r="I1">
         <v>500000</v>
@@ -578,10 +646,16 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>41986</v>
+        <v>41998</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="C3">
+        <v>5577</v>
+      </c>
+      <c r="D3">
+        <v>783</v>
       </c>
       <c r="E3">
         <v>8000</v>

--- a/trunk/交易紀錄/信用貸款.xlsx
+++ b/trunk/交易紀錄/信用貸款.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="國泰" sheetId="2" r:id="rId1"/>
     <sheet name="合庫" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -122,74 +122,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -201,7 +133,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -480,8 +412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -492,26 +424,26 @@
     <row r="1" spans="1:9">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>6830</v>
+        <v>13616</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>1950</v>
+        <v>3944</v>
       </c>
       <c r="E1">
         <f>SUBTOTAL(9,E3:E500)</f>
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="F1">
         <f>E1-C1-D1</f>
-        <v>1220</v>
+        <v>2440</v>
       </c>
       <c r="G1">
         <v>5000</v>
       </c>
       <c r="H1">
         <f>D1+G1</f>
-        <v>6950</v>
+        <v>8944</v>
       </c>
       <c r="I1">
         <v>650000</v>
@@ -566,6 +498,15 @@
     <row r="4" spans="1:9">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
+      <c r="C4">
+        <v>6786</v>
+      </c>
+      <c r="D4">
+        <v>1994</v>
+      </c>
+      <c r="E4">
+        <v>10000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -578,7 +519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/trunk/交易紀錄/信用貸款.xlsx
+++ b/trunk/交易紀錄/信用貸款.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,6 +54,10 @@
   </si>
   <si>
     <t>本金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貸款餘額</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -410,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -421,7 +425,7 @@
     <col min="1" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
         <v>13616</v>
@@ -448,8 +452,12 @@
       <c r="I1">
         <v>650000</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1">
+        <f>I1-C1</f>
+        <v>636384</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -477,8 +485,11 @@
       <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>41986</v>
       </c>
@@ -495,9 +506,13 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1">
+        <v>42017</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C4">
         <v>6786</v>
       </c>
@@ -517,10 +532,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -528,7 +543,7 @@
     <col min="1" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
         <v>5577</v>
@@ -555,8 +570,12 @@
       <c r="I1">
         <v>500000</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1">
+        <f>I1-C1</f>
+        <v>494423</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -584,8 +603,11 @@
       <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>41998</v>
       </c>
@@ -602,7 +624,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>

--- a/trunk/交易紀錄/信用貸款.xlsx
+++ b/trunk/交易紀錄/信用貸款.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -417,7 +417,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -535,7 +535,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -546,33 +546,33 @@
     <row r="1" spans="1:10">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>5577</v>
+        <v>11162</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>783</v>
+        <v>1558</v>
       </c>
       <c r="E1">
         <f>SUBTOTAL(9,E3:E500)</f>
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="F1">
         <f>E1-C1-D1</f>
-        <v>1640</v>
+        <v>3280</v>
       </c>
       <c r="G1">
         <v>3200</v>
       </c>
       <c r="H1">
         <f>D1+G1</f>
-        <v>3983</v>
+        <v>4758</v>
       </c>
       <c r="I1">
         <v>500000</v>
       </c>
       <c r="J1">
         <f>I1-C1</f>
-        <v>494423</v>
+        <v>488838</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -625,8 +625,21 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="1">
+        <v>42030</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>5585</v>
+      </c>
+      <c r="D4">
+        <v>775</v>
+      </c>
+      <c r="E4">
+        <v>8000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/trunk/交易紀錄/信用貸款.xlsx
+++ b/trunk/交易紀錄/信用貸款.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -428,33 +428,33 @@
     <row r="1" spans="1:10">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>13616</v>
+        <v>20423</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>3944</v>
+        <v>5917</v>
       </c>
       <c r="E1">
         <f>SUBTOTAL(9,E3:E500)</f>
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="F1">
         <f>E1-C1-D1</f>
-        <v>2440</v>
+        <v>3660</v>
       </c>
       <c r="G1">
         <v>5000</v>
       </c>
       <c r="H1">
         <f>D1+G1</f>
-        <v>8944</v>
+        <v>10917</v>
       </c>
       <c r="I1">
         <v>650000</v>
       </c>
       <c r="J1">
         <f>I1-C1</f>
-        <v>636384</v>
+        <v>629577</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -520,6 +520,23 @@
         <v>1994</v>
       </c>
       <c r="E4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
+        <v>42048</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>6807</v>
+      </c>
+      <c r="D5">
+        <v>1973</v>
+      </c>
+      <c r="E5">
         <v>10000</v>
       </c>
     </row>

--- a/trunk/交易紀錄/信用貸款.xlsx
+++ b/trunk/交易紀錄/信用貸款.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="國泰" sheetId="2" r:id="rId1"/>
     <sheet name="合庫" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,6 +126,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -137,7 +205,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -416,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -549,10 +617,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -563,33 +631,33 @@
     <row r="1" spans="1:10">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>11162</v>
+        <v>16756</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>1558</v>
+        <v>2324</v>
       </c>
       <c r="E1">
         <f>SUBTOTAL(9,E3:E500)</f>
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="F1">
         <f>E1-C1-D1</f>
-        <v>3280</v>
+        <v>4920</v>
       </c>
       <c r="G1">
         <v>3200</v>
       </c>
       <c r="H1">
         <f>D1+G1</f>
-        <v>4758</v>
+        <v>5524</v>
       </c>
       <c r="I1">
         <v>500000</v>
       </c>
       <c r="J1">
         <f>I1-C1</f>
-        <v>488838</v>
+        <v>483244</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -655,6 +723,23 @@
         <v>775</v>
       </c>
       <c r="E4">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
+        <v>42060</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>5594</v>
+      </c>
+      <c r="D5">
+        <v>766</v>
+      </c>
+      <c r="E5">
         <v>8000</v>
       </c>
     </row>

--- a/trunk/交易紀錄/信用貸款.xlsx
+++ b/trunk/交易紀錄/信用貸款.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="國泰" sheetId="2" r:id="rId1"/>
     <sheet name="合庫" sheetId="4" r:id="rId2"/>
+    <sheet name="匯豐" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="11">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,74 +127,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -205,7 +138,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -619,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -747,4 +680,106 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="C1">
+        <f>SUBTOTAL(9,C3:C500)</f>
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <f>SUBTOTAL(9,D3:D500)</f>
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <f>SUBTOTAL(9,E3:E500)</f>
+        <v>8000</v>
+      </c>
+      <c r="F1">
+        <f>E1-C1-D1</f>
+        <v>8000</v>
+      </c>
+      <c r="G1">
+        <v>4530</v>
+      </c>
+      <c r="H1">
+        <f>D1+G1</f>
+        <v>4530</v>
+      </c>
+      <c r="I1">
+        <v>500000</v>
+      </c>
+      <c r="J1">
+        <f>I1-C1</f>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1">
+        <v>42073</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/trunk/交易紀錄/信用貸款.xlsx
+++ b/trunk/交易紀錄/信用貸款.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="國泰" sheetId="2" r:id="rId1"/>
     <sheet name="合庫" sheetId="4" r:id="rId2"/>
     <sheet name="匯豐" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="11">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -415,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -429,33 +429,33 @@
     <row r="1" spans="1:10">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>20423</v>
+        <v>27440</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>5917</v>
+        <v>7680</v>
       </c>
       <c r="E1">
         <f>SUBTOTAL(9,E3:E500)</f>
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="F1">
         <f>E1-C1-D1</f>
-        <v>3660</v>
+        <v>4880</v>
       </c>
       <c r="G1">
         <v>5000</v>
       </c>
       <c r="H1">
         <f>D1+G1</f>
-        <v>10917</v>
+        <v>12680</v>
       </c>
       <c r="I1">
         <v>650000</v>
       </c>
       <c r="J1">
         <f>I1-C1</f>
-        <v>629577</v>
+        <v>622560</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -538,6 +538,23 @@
         <v>1973</v>
       </c>
       <c r="E5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>42076</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>7017</v>
+      </c>
+      <c r="D6">
+        <v>1763</v>
+      </c>
+      <c r="E6">
         <v>10000</v>
       </c>
     </row>
@@ -686,7 +703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>

--- a/trunk/交易紀錄/信用貸款.xlsx
+++ b/trunk/交易紀錄/信用貸款.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="國泰" sheetId="2" r:id="rId1"/>
@@ -417,7 +417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -703,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -778,7 +778,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1">
-        <v>42073</v>
+        <v>42104</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>

--- a/trunk/交易紀錄/信用貸款.xlsx
+++ b/trunk/交易紀錄/信用貸款.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="11">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,6 +127,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -138,7 +206,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -418,7 +486,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -567,10 +635,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -581,33 +649,33 @@
     <row r="1" spans="1:10">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>16756</v>
+        <v>22209</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>2324</v>
+        <v>3411</v>
       </c>
       <c r="E1">
         <f>SUBTOTAL(9,E3:E500)</f>
-        <v>24000</v>
+        <v>32000</v>
       </c>
       <c r="F1">
         <f>E1-C1-D1</f>
-        <v>4920</v>
+        <v>6380</v>
       </c>
       <c r="G1">
         <v>3200</v>
       </c>
       <c r="H1">
         <f>D1+G1</f>
-        <v>5524</v>
+        <v>6611</v>
       </c>
       <c r="I1">
         <v>500000</v>
       </c>
       <c r="J1">
         <f>I1-C1</f>
-        <v>483244</v>
+        <v>477791</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -690,6 +758,23 @@
         <v>766</v>
       </c>
       <c r="E5">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>42088</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>5453</v>
+      </c>
+      <c r="D6">
+        <v>1087</v>
+      </c>
+      <c r="E6">
         <v>8000</v>
       </c>
     </row>
@@ -704,7 +789,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/trunk/交易紀錄/信用貸款.xlsx
+++ b/trunk/交易紀錄/信用貸款.xlsx
@@ -11,12 +11,12 @@
     <sheet name="合庫" sheetId="4" r:id="rId2"/>
     <sheet name="匯豐" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="12">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,10 @@
   </si>
   <si>
     <t>貸款餘額</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -127,74 +131,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -206,7 +142,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -483,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -494,39 +430,39 @@
     <col min="1" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>27440</v>
+        <v>34290</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>7680</v>
-      </c>
-      <c r="E1">
-        <f>SUBTOTAL(9,E3:E500)</f>
-        <v>40000</v>
+        <v>9610</v>
       </c>
       <c r="F1">
-        <f>E1-C1-D1</f>
-        <v>4880</v>
+        <f>SUBTOTAL(9,F3:F500)</f>
+        <v>50000</v>
       </c>
       <c r="G1">
+        <f>F1-C1-D1</f>
+        <v>6100</v>
+      </c>
+      <c r="H1">
         <v>5000</v>
       </c>
-      <c r="H1">
-        <f>D1+G1</f>
-        <v>12680</v>
-      </c>
       <c r="I1">
+        <f>D1+H1</f>
+        <v>14610</v>
+      </c>
+      <c r="J1">
         <v>650000</v>
       </c>
-      <c r="J1">
-        <f>I1-C1</f>
-        <v>622560</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1">
+        <f>J1-C1</f>
+        <v>615710</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -540,25 +476,28 @@
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>41986</v>
       </c>
@@ -572,10 +511,13 @@
         <v>1950</v>
       </c>
       <c r="E3">
+        <v>3.65</v>
+      </c>
+      <c r="F3">
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>42017</v>
       </c>
@@ -589,10 +531,13 @@
         <v>1994</v>
       </c>
       <c r="E4">
+        <v>3.65</v>
+      </c>
+      <c r="F4">
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>42048</v>
       </c>
@@ -606,10 +551,13 @@
         <v>1973</v>
       </c>
       <c r="E5">
+        <v>3.65</v>
+      </c>
+      <c r="F5">
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>42076</v>
       </c>
@@ -623,6 +571,29 @@
         <v>1763</v>
       </c>
       <c r="E6">
+        <v>3.65</v>
+      </c>
+      <c r="F6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>42107</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>6850</v>
+      </c>
+      <c r="D7">
+        <v>1930</v>
+      </c>
+      <c r="E7">
+        <v>3.65</v>
+      </c>
+      <c r="F7">
         <v>10000</v>
       </c>
     </row>
@@ -635,10 +606,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -646,7 +617,7 @@
     <col min="1" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
         <v>22209</v>
@@ -655,30 +626,30 @@
         <f>SUBTOTAL(9,D3:D500)</f>
         <v>3411</v>
       </c>
-      <c r="E1">
-        <f>SUBTOTAL(9,E3:E500)</f>
+      <c r="F1">
+        <f>SUBTOTAL(9,F3:F500)</f>
         <v>32000</v>
       </c>
-      <c r="F1">
-        <f>E1-C1-D1</f>
+      <c r="G1">
+        <f>F1-C1-D1</f>
         <v>6380</v>
       </c>
-      <c r="G1">
+      <c r="H1">
         <v>3200</v>
       </c>
-      <c r="H1">
-        <f>D1+G1</f>
+      <c r="I1">
+        <f>D1+H1</f>
         <v>6611</v>
       </c>
-      <c r="I1">
+      <c r="J1">
         <v>500000</v>
       </c>
-      <c r="J1">
-        <f>I1-C1</f>
+      <c r="K1">
+        <f>J1-C1</f>
         <v>477791</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -692,25 +663,28 @@
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>41998</v>
       </c>
@@ -723,11 +697,11 @@
       <c r="D3">
         <v>783</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>8000</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>42030</v>
       </c>
@@ -740,11 +714,11 @@
       <c r="D4">
         <v>775</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>8000</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>42060</v>
       </c>
@@ -757,11 +731,11 @@
       <c r="D5">
         <v>766</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>8000</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>42088</v>
       </c>
@@ -774,7 +748,7 @@
       <c r="D6">
         <v>1087</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>8000</v>
       </c>
     </row>
@@ -786,10 +760,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -797,39 +771,39 @@
     <col min="1" max="1" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>0</v>
+        <v>5618</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>0</v>
-      </c>
-      <c r="E1">
-        <f>SUBTOTAL(9,E3:E500)</f>
+        <v>692</v>
+      </c>
+      <c r="F1">
+        <f>SUBTOTAL(9,F3:F500)</f>
         <v>8000</v>
       </c>
-      <c r="F1">
-        <f>E1-C1-D1</f>
-        <v>8000</v>
-      </c>
       <c r="G1">
+        <f>F1-C1-D1</f>
+        <v>1690</v>
+      </c>
+      <c r="H1">
         <v>4530</v>
       </c>
-      <c r="H1">
-        <f>D1+G1</f>
-        <v>4530</v>
-      </c>
       <c r="I1">
+        <f>D1+H1</f>
+        <v>5222</v>
+      </c>
+      <c r="J1">
         <v>500000</v>
       </c>
-      <c r="J1">
-        <f>I1-C1</f>
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1">
+        <f>J1-C1</f>
+        <v>494382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -843,40 +817,52 @@
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>42104</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C3">
+        <v>5618</v>
+      </c>
+      <c r="D3">
+        <v>692</v>
+      </c>
       <c r="E3">
+        <v>1.66</v>
+      </c>
+      <c r="F3">
         <v>8000</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
     </row>

--- a/trunk/交易紀錄/信用貸款.xlsx
+++ b/trunk/交易紀錄/信用貸款.xlsx
@@ -11,7 +11,7 @@
     <sheet name="合庫" sheetId="4" r:id="rId2"/>
     <sheet name="匯豐" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -131,6 +131,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -142,7 +210,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -422,7 +490,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -609,7 +677,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -697,6 +765,9 @@
       <c r="D3">
         <v>783</v>
       </c>
+      <c r="E3">
+        <v>1.88</v>
+      </c>
       <c r="F3">
         <v>8000</v>
       </c>
@@ -714,6 +785,9 @@
       <c r="D4">
         <v>775</v>
       </c>
+      <c r="E4">
+        <v>1.88</v>
+      </c>
       <c r="F4">
         <v>8000</v>
       </c>
@@ -731,6 +805,9 @@
       <c r="D5">
         <v>766</v>
       </c>
+      <c r="E5">
+        <v>1.88</v>
+      </c>
       <c r="F5">
         <v>8000</v>
       </c>
@@ -747,6 +824,9 @@
       </c>
       <c r="D6">
         <v>1087</v>
+      </c>
+      <c r="E6">
+        <v>2.7</v>
       </c>
       <c r="F6">
         <v>8000</v>

--- a/trunk/交易紀錄/信用貸款.xlsx
+++ b/trunk/交易紀錄/信用貸款.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="12">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -674,10 +674,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -688,33 +688,33 @@
     <row r="1" spans="1:11">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>22209</v>
+        <v>27674</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>3411</v>
+        <v>4486</v>
       </c>
       <c r="F1">
         <f>SUBTOTAL(9,F3:F500)</f>
-        <v>32000</v>
+        <v>40000</v>
       </c>
       <c r="G1">
         <f>F1-C1-D1</f>
-        <v>6380</v>
+        <v>7840</v>
       </c>
       <c r="H1">
         <v>3200</v>
       </c>
       <c r="I1">
         <f>D1+H1</f>
-        <v>6611</v>
+        <v>7686</v>
       </c>
       <c r="J1">
         <v>500000</v>
       </c>
       <c r="K1">
         <f>J1-C1</f>
-        <v>477791</v>
+        <v>472326</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -831,6 +831,29 @@
       <c r="F6">
         <v>8000</v>
       </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>42121</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>5465</v>
+      </c>
+      <c r="D7">
+        <v>1075</v>
+      </c>
+      <c r="E7">
+        <v>2.7</v>
+      </c>
+      <c r="F7">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="B8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/trunk/交易紀錄/信用貸款.xlsx
+++ b/trunk/交易紀錄/信用貸款.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="12">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,74 +131,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -210,7 +142,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -487,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C8" sqref="C8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -501,33 +433,33 @@
     <row r="1" spans="1:11">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>34290</v>
+        <v>41223</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>9610</v>
+        <v>11457</v>
       </c>
       <c r="F1">
         <f>SUBTOTAL(9,F3:F500)</f>
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="G1">
         <f>F1-C1-D1</f>
-        <v>6100</v>
+        <v>7320</v>
       </c>
       <c r="H1">
         <v>5000</v>
       </c>
       <c r="I1">
         <f>D1+H1</f>
-        <v>14610</v>
+        <v>16457</v>
       </c>
       <c r="J1">
         <v>650000</v>
       </c>
       <c r="K1">
         <f>J1-C1</f>
-        <v>615710</v>
+        <v>608777</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -662,6 +594,26 @@
         <v>3.65</v>
       </c>
       <c r="F7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>42137</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>6933</v>
+      </c>
+      <c r="D8">
+        <v>1847</v>
+      </c>
+      <c r="E8">
+        <v>3.65</v>
+      </c>
+      <c r="F8">
         <v>10000</v>
       </c>
     </row>
@@ -866,7 +818,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -877,11 +829,11 @@
     <row r="1" spans="1:11">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>5618</v>
+        <v>5605</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>692</v>
+        <v>705</v>
       </c>
       <c r="F1">
         <f>SUBTOTAL(9,F3:F500)</f>
@@ -896,14 +848,14 @@
       </c>
       <c r="I1">
         <f>D1+H1</f>
-        <v>5222</v>
+        <v>5235</v>
       </c>
       <c r="J1">
         <v>500000</v>
       </c>
       <c r="K1">
         <f>J1-C1</f>
-        <v>494382</v>
+        <v>494395</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -949,10 +901,10 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>5618</v>
+        <v>5605</v>
       </c>
       <c r="D3">
-        <v>692</v>
+        <v>705</v>
       </c>
       <c r="E3">
         <v>1.66</v>

--- a/trunk/交易紀錄/信用貸款.xlsx
+++ b/trunk/交易紀錄/信用貸款.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="12">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +131,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -142,7 +210,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -422,7 +490,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:D8"/>
+      <selection activeCell="C7" sqref="C7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -629,7 +697,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -640,33 +708,33 @@
     <row r="1" spans="1:11">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>27674</v>
+        <v>33151</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>4486</v>
+        <v>5549</v>
       </c>
       <c r="F1">
         <f>SUBTOTAL(9,F3:F500)</f>
-        <v>40000</v>
+        <v>48000</v>
       </c>
       <c r="G1">
         <f>F1-C1-D1</f>
-        <v>7840</v>
+        <v>9300</v>
       </c>
       <c r="H1">
         <v>3200</v>
       </c>
       <c r="I1">
         <f>D1+H1</f>
-        <v>7686</v>
+        <v>8749</v>
       </c>
       <c r="J1">
         <v>500000</v>
       </c>
       <c r="K1">
         <f>J1-C1</f>
-        <v>472326</v>
+        <v>466849</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -805,7 +873,24 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="B8" s="1"/>
+      <c r="A8" s="1">
+        <v>42149</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>5477</v>
+      </c>
+      <c r="D8">
+        <v>1063</v>
+      </c>
+      <c r="E8">
+        <v>2.7</v>
+      </c>
+      <c r="F8">
+        <v>8000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -818,7 +903,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -914,8 +999,12 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="1">
+        <v>42134</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1"/>

--- a/trunk/交易紀錄/信用貸款.xlsx
+++ b/trunk/交易紀錄/信用貸款.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="12">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -490,7 +490,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:D7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -903,7 +903,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -914,33 +914,33 @@
     <row r="1" spans="1:11">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>5605</v>
+        <v>11218</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>705</v>
+        <v>1402</v>
       </c>
       <c r="F1">
         <f>SUBTOTAL(9,F3:F500)</f>
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="G1">
         <f>F1-C1-D1</f>
-        <v>1690</v>
+        <v>3380</v>
       </c>
       <c r="H1">
         <v>4530</v>
       </c>
       <c r="I1">
         <f>D1+H1</f>
-        <v>5235</v>
+        <v>5932</v>
       </c>
       <c r="J1">
         <v>500000</v>
       </c>
       <c r="K1">
         <f>J1-C1</f>
-        <v>494395</v>
+        <v>488782</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1005,10 +1005,26 @@
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C4">
+        <v>5613</v>
+      </c>
+      <c r="D4">
+        <v>697</v>
+      </c>
+      <c r="E4">
+        <v>1.66</v>
+      </c>
+      <c r="F4">
+        <v>8000</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="1">
+        <v>42165</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/trunk/交易紀錄/信用貸款.xlsx
+++ b/trunk/交易紀錄/信用貸款.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="國泰" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="12">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,74 +131,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -210,7 +142,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -487,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -501,33 +433,33 @@
     <row r="1" spans="1:11">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>41223</v>
+        <v>48116</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>11457</v>
+        <v>13344</v>
       </c>
       <c r="F1">
         <f>SUBTOTAL(9,F3:F500)</f>
-        <v>60000</v>
+        <v>70000</v>
       </c>
       <c r="G1">
         <f>F1-C1-D1</f>
-        <v>7320</v>
+        <v>8540</v>
       </c>
       <c r="H1">
         <v>5000</v>
       </c>
       <c r="I1">
         <f>D1+H1</f>
-        <v>16457</v>
+        <v>18344</v>
       </c>
       <c r="J1">
         <v>650000</v>
       </c>
       <c r="K1">
         <f>J1-C1</f>
-        <v>608777</v>
+        <v>601884</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -682,6 +614,26 @@
         <v>3.65</v>
       </c>
       <c r="F8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>42170</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>6893</v>
+      </c>
+      <c r="D9">
+        <v>1887</v>
+      </c>
+      <c r="E9">
+        <v>3.65</v>
+      </c>
+      <c r="F9">
         <v>10000</v>
       </c>
     </row>
@@ -902,7 +854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>

--- a/trunk/交易紀錄/信用貸款.xlsx
+++ b/trunk/交易紀錄/信用貸款.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="國泰" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="12">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +131,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -142,7 +210,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -421,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -646,10 +714,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -660,33 +728,33 @@
     <row r="1" spans="1:11">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>33151</v>
+        <v>38546</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>5549</v>
+        <v>6794</v>
       </c>
       <c r="F1">
         <f>SUBTOTAL(9,F3:F500)</f>
-        <v>48000</v>
+        <v>56000</v>
       </c>
       <c r="G1">
         <f>F1-C1-D1</f>
-        <v>9300</v>
+        <v>10660</v>
       </c>
       <c r="H1">
         <v>3200</v>
       </c>
       <c r="I1">
         <f>D1+H1</f>
-        <v>8749</v>
+        <v>9994</v>
       </c>
       <c r="J1">
         <v>500000</v>
       </c>
       <c r="K1">
         <f>J1-C1</f>
-        <v>466849</v>
+        <v>461454</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -841,6 +909,26 @@
         <v>2.7</v>
       </c>
       <c r="F8">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>42180</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>5395</v>
+      </c>
+      <c r="D9">
+        <v>1245</v>
+      </c>
+      <c r="E9">
+        <v>3.2</v>
+      </c>
+      <c r="F9">
         <v>8000</v>
       </c>
     </row>
@@ -854,7 +942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>

--- a/trunk/交易紀錄/信用貸款.xlsx
+++ b/trunk/交易紀錄/信用貸款.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="國泰" sheetId="2" r:id="rId1"/>
     <sheet name="合庫" sheetId="4" r:id="rId2"/>
     <sheet name="匯豐" sheetId="5" r:id="rId3"/>
+    <sheet name="富邦" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="13">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +64,10 @@
   </si>
   <si>
     <t>利率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結清</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -131,74 +136,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -210,7 +147,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -489,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -714,10 +651,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -728,33 +665,33 @@
     <row r="1" spans="1:11">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>38546</v>
+        <v>500000</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>6794</v>
+        <v>6996</v>
       </c>
       <c r="F1">
         <f>SUBTOTAL(9,F3:F500)</f>
-        <v>56000</v>
+        <v>521000</v>
       </c>
       <c r="G1">
         <f>F1-C1-D1</f>
-        <v>10660</v>
+        <v>14004</v>
       </c>
       <c r="H1">
         <v>3200</v>
       </c>
       <c r="I1">
         <f>D1+H1</f>
-        <v>9994</v>
+        <v>10196</v>
       </c>
       <c r="J1">
         <v>500000</v>
       </c>
       <c r="K1">
         <f>J1-C1</f>
-        <v>461454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -930,6 +867,26 @@
       </c>
       <c r="F9">
         <v>8000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>461454</v>
+      </c>
+      <c r="D10">
+        <v>202</v>
+      </c>
+      <c r="E10">
+        <v>3.2</v>
+      </c>
+      <c r="F10">
+        <v>465000</v>
       </c>
     </row>
   </sheetData>
@@ -942,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -962,11 +919,11 @@
       </c>
       <c r="F1">
         <f>SUBTOTAL(9,F3:F500)</f>
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="G1">
         <f>F1-C1-D1</f>
-        <v>3380</v>
+        <v>11380</v>
       </c>
       <c r="H1">
         <v>4530</v>
@@ -1065,6 +1022,86 @@
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="E5">
+        <v>1.66</v>
+      </c>
+      <c r="F5">
+        <v>8000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="H1">
+        <v>5000</v>
+      </c>
+      <c r="J1">
+        <v>1900000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="E3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/trunk/交易紀錄/信用貸款.xlsx
+++ b/trunk/交易紀錄/信用貸款.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="13">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -424,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -438,15 +438,15 @@
     <row r="1" spans="1:11">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>48116</v>
+        <v>650000</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>13344</v>
+        <v>14427</v>
       </c>
       <c r="F1">
         <f>SUBTOTAL(9,F3:F500)</f>
-        <v>70000</v>
+        <v>672967</v>
       </c>
       <c r="G1">
         <f>F1-C1-D1</f>
@@ -457,14 +457,14 @@
       </c>
       <c r="I1">
         <f>D1+H1</f>
-        <v>18344</v>
+        <v>19427</v>
       </c>
       <c r="J1">
         <v>650000</v>
       </c>
       <c r="K1">
         <f>J1-C1</f>
-        <v>601884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -640,6 +640,27 @@
       </c>
       <c r="F9">
         <v>10000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>42186</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>601884</v>
+      </c>
+      <c r="D10">
+        <f>F10-C10</f>
+        <v>1083</v>
+      </c>
+      <c r="E10">
+        <v>3.65</v>
+      </c>
+      <c r="F10">
+        <v>602967</v>
       </c>
     </row>
   </sheetData>
@@ -654,7 +675,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -900,7 +921,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="K9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1040,16 +1061,43 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11">
+      <c r="C1">
+        <f>SUBTOTAL(9,C3:C500)</f>
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <f>SUBTOTAL(9,D3:D500)</f>
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <f>SUBTOTAL(9,F3:F500)</f>
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <f>F1-C1-D1</f>
+        <v>0</v>
+      </c>
       <c r="H1">
-        <v>5000</v>
+        <v>5060</v>
+      </c>
+      <c r="I1">
+        <f>D1+H1</f>
+        <v>5060</v>
       </c>
       <c r="J1">
+        <v>1900000</v>
+      </c>
+      <c r="K1">
+        <f>J1-C1</f>
         <v>1900000</v>
       </c>
     </row>

--- a/trunk/交易紀錄/信用貸款.xlsx
+++ b/trunk/交易紀錄/信用貸款.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="國泰" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="14">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +68,10 @@
   </si>
   <si>
     <t>結清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代書費</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -136,6 +140,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -147,7 +219,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -426,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -675,7 +747,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -921,7 +993,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="A1:XFD1048576"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -932,11 +1004,11 @@
     <row r="1" spans="1:11">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>11218</v>
+        <v>16861</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>1402</v>
+        <v>2069</v>
       </c>
       <c r="F1">
         <f>SUBTOTAL(9,F3:F500)</f>
@@ -944,21 +1016,21 @@
       </c>
       <c r="G1">
         <f>F1-C1-D1</f>
-        <v>11380</v>
+        <v>5070</v>
       </c>
       <c r="H1">
         <v>4530</v>
       </c>
       <c r="I1">
         <f>D1+H1</f>
-        <v>5932</v>
+        <v>6599</v>
       </c>
       <c r="J1">
         <v>500000</v>
       </c>
       <c r="K1">
         <f>J1-C1</f>
-        <v>488782</v>
+        <v>483139</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1042,6 +1114,12 @@
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="C5">
+        <v>5643</v>
+      </c>
+      <c r="D5">
+        <v>667</v>
       </c>
       <c r="E5">
         <v>1.66</v>
@@ -1058,10 +1136,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1069,39 +1147,42 @@
     <col min="1" max="1" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>0</v>
+        <v>6110</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>0</v>
+        <v>3958</v>
       </c>
       <c r="F1">
         <f>SUBTOTAL(9,F3:F500)</f>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G1">
         <f>F1-C1-D1</f>
-        <v>0</v>
+        <v>4932</v>
       </c>
       <c r="H1">
         <v>5060</v>
       </c>
       <c r="I1">
-        <f>D1+H1</f>
-        <v>5060</v>
+        <v>5660</v>
       </c>
       <c r="J1">
+        <f>D1+H1+I1</f>
+        <v>14678</v>
+      </c>
+      <c r="K1">
         <v>1900000</v>
       </c>
-      <c r="K1">
-        <f>J1-C1</f>
-        <v>1900000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1">
+        <f>K1-C1</f>
+        <v>1893890</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1127,27 +1208,43 @@
         <v>4</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1">
+        <v>42216</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>6110</v>
+      </c>
+      <c r="D3">
+        <v>3958</v>
+      </c>
       <c r="E3">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="F3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
     </row>

--- a/trunk/交易紀錄/信用貸款.xlsx
+++ b/trunk/交易紀錄/信用貸款.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="10290" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="國泰" sheetId="2" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="匯豐" sheetId="5" r:id="rId3"/>
     <sheet name="富邦" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="14">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -990,10 +990,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1004,33 +1004,33 @@
     <row r="1" spans="1:11">
       <c r="C1">
         <f>SUBTOTAL(9,C3:C500)</f>
-        <v>16861</v>
+        <v>22110</v>
       </c>
       <c r="D1">
         <f>SUBTOTAL(9,D3:D500)</f>
-        <v>2069</v>
+        <v>3610</v>
       </c>
       <c r="F1">
         <f>SUBTOTAL(9,F3:F500)</f>
-        <v>24000</v>
+        <v>32000</v>
       </c>
       <c r="G1">
         <f>F1-C1-D1</f>
-        <v>5070</v>
+        <v>6280</v>
       </c>
       <c r="H1">
         <v>4530</v>
       </c>
       <c r="I1">
         <f>D1+H1</f>
-        <v>6599</v>
+        <v>8140</v>
       </c>
       <c r="J1">
         <v>500000</v>
       </c>
       <c r="K1">
         <f>J1-C1</f>
-        <v>483139</v>
+        <v>477890</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1125,6 +1125,26 @@
         <v>1.66</v>
       </c>
       <c r="F5">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>42195</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>5249</v>
+      </c>
+      <c r="D6">
+        <v>1541</v>
+      </c>
+      <c r="E6">
+        <v>3.88</v>
+      </c>
+      <c r="F6">
         <v>8000</v>
       </c>
     </row>
@@ -1138,7 +1158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
